--- a/Python/ICP/StatistikICP.xlsx
+++ b/Python/ICP/StatistikICP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Afgangsprojekt\Python\ICP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emila\Documents\Github\Afgangsprojekt\Python\ICP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B58F3E9-859F-4B02-9DC1-8CD8ABE5A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20D630-F581-4D1B-8896-782996F38890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1845" windowWidth="25365" windowHeight="15480" xr2:uid="{2F0DCD3D-57A4-4B4C-B8DD-62B4532FB5AF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2F0DCD3D-57A4-4B4C-B8DD-62B4532FB5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Optimeret</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>U. Features</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
 </sst>
 </file>
@@ -268,16 +271,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$A$1:$A$3</c:f>
+              <c:f>'Ark1'!$A$1:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>U. Features</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>U. vægt</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Optimeret</c:v>
                 </c:pt>
               </c:strCache>
@@ -285,17 +291,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$1:$B$3</c:f>
+              <c:f>'Ark1'!$B$1:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>63.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>58.81</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>23.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -716,16 +725,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$A$1:$A$3</c:f>
+              <c:f>'Ark1'!$A$1:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>U. Features</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>U. vægt</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Optimeret</c:v>
                 </c:pt>
               </c:strCache>
@@ -733,17 +745,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$C$1:$C$3</c:f>
+              <c:f>'Ark1'!$C$1:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>305.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>284.31</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>257.08</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>247.83</c:v>
                 </c:pt>
               </c:numCache>
@@ -820,6 +835,7 @@
         <c:axId val="729730376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="220"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2380,47 +2396,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99F947C-807B-4FA6-99C0-C628CFFAD3F0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>63.25</v>
+        <v>74.3</v>
       </c>
       <c r="C1">
-        <v>284.31</v>
+        <v>305.05</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>58.81</v>
+        <v>63.25</v>
       </c>
       <c r="C2">
-        <v>257.08</v>
+        <v>284.31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>58.81</v>
+      </c>
+      <c r="C3">
+        <v>257.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>23.84</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>247.83</v>
       </c>
     </row>
